--- a/Dayane_Lima_QA/COCUS Assigment QA Automation/Task 1 – RESTful API tests /Task 1 - Gherkin.xlsx
+++ b/Dayane_Lima_QA/COCUS Assigment QA Automation/Task 1 – RESTful API tests /Task 1 - Gherkin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpblima/Desktop/COCUS Assigment QA Automation/Task 1 – RESTful API tests /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpblima/Desktop/Dayane_Lima_QA/COCUS Assigment QA Automation/Task 1 – RESTful API tests /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A129E-197F-C645-AB8D-628651095AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294EB9F3-2434-FB4E-A2D6-11BFA2FF132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="520" windowWidth="28040" windowHeight="16380" xr2:uid="{537892A8-5DE1-3840-B9E7-C64DA2AC92CB}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:CF374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
